--- a/src/test/resources/PartRiskTestData/TestEnv_Parameters.xlsx
+++ b/src/test/resources/PartRiskTestData/TestEnv_Parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IdeaProjects\Z2Data-Part-Risk-Production-Version\src\test\resources\PartRiskTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36429176-DB7F-4FCB-AD31-F4847C78ADAF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B727B6AC-8D56-455A-AF14-A2A77A4ABDFC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2445" yWindow="825" windowWidth="15375" windowHeight="7875" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2790" yWindow="1170" windowWidth="15375" windowHeight="7875" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SimpleSearch" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Variable</t>
   </si>
@@ -61,13 +61,49 @@
     <t>Value</t>
   </si>
   <si>
-    <t>Ahmed Elzayat</t>
-  </si>
-  <si>
-    <t>PasswordCheck</t>
-  </si>
-  <si>
     <t>https://test.z2data.com/</t>
+  </si>
+  <si>
+    <t>ForeCast_Tab_URL</t>
+  </si>
+  <si>
+    <t>Compliance_Tab_URL</t>
+  </si>
+  <si>
+    <t>Mitigation_Tab_URL</t>
+  </si>
+  <si>
+    <t>Reports__Tab_URL</t>
+  </si>
+  <si>
+    <t>Scrub_Tab_URL</t>
+  </si>
+  <si>
+    <t>Pom_Dashboard_URL</t>
+  </si>
+  <si>
+    <t>https://test.z2data.com/RiskManager/Dashboard?BomId=41737</t>
+  </si>
+  <si>
+    <t>https://test.z2data.com/RiskManager/Scrub?BomId=41737</t>
+  </si>
+  <si>
+    <t>https://test.z2data.com/RiskManager/Forecast?BomId=41737</t>
+  </si>
+  <si>
+    <t>https://test.z2data.com/RiskManager/Compliance?BomId=41737</t>
+  </si>
+  <si>
+    <t>https://test.z2data.com/RiskManager/Mitigation?BomId=41737</t>
+  </si>
+  <si>
+    <t>https://test.z2data.com/RiskManager/Report?BomId=41737</t>
+  </si>
+  <si>
+    <t>a.alzayat@z2data.com</t>
+  </si>
+  <si>
+    <t>P@ssw0rd</t>
   </si>
 </sst>
 </file>
@@ -104,25 +140,23 @@
       <charset val="1"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -171,7 +205,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -180,17 +214,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -584,16 +614,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMJ9"/>
+  <dimension ref="A1:AMJ12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="1007" width="8.5703125" style="1" customWidth="1"/>
     <col min="1008" max="1024" width="9.140625" style="1" customWidth="1"/>
     <col min="1025" max="16384" width="9.140625" style="2"/>
@@ -608,31 +638,31 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>11</v>
+      <c r="B4" s="6" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>12</v>
+      <c r="B5" s="8" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -641,25 +671,63 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
+      <c r="A7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
+      <c r="A8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
+      <c r="A9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A2:B2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" display="Z2D.PR1@z2data.com" xr:uid="{9E5440E1-DB78-4AC5-ADA6-48BB54C8B89E}"/>
-    <hyperlink ref="B5" r:id="rId2" display="Z2D.PR1@z2data.com" xr:uid="{02F7D50C-CE3D-429A-AB05-5D8DE689A90E}"/>
-    <hyperlink ref="B3" r:id="rId3" xr:uid="{F38D2E6A-EAD9-4A5B-9D3E-556994FAE7B9}"/>
+    <hyperlink ref="B5" r:id="rId1" xr:uid="{02F7D50C-CE3D-429A-AB05-5D8DE689A90E}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{F38D2E6A-EAD9-4A5B-9D3E-556994FAE7B9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/src/test/resources/PartRiskTestData/TestEnv_Parameters.xlsx
+++ b/src/test/resources/PartRiskTestData/TestEnv_Parameters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IdeaProjects\Z2Data-Part-Risk-Production-Version\src\test\resources\PartRiskTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B727B6AC-8D56-455A-AF14-A2A77A4ABDFC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEC341A5-6694-4053-AC12-AD91A463DD97}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2790" yWindow="1170" windowWidth="15375" windowHeight="7875" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73,9 +73,6 @@
     <t>Mitigation_Tab_URL</t>
   </si>
   <si>
-    <t>Reports__Tab_URL</t>
-  </si>
-  <si>
     <t>Scrub_Tab_URL</t>
   </si>
   <si>
@@ -104,6 +101,9 @@
   </si>
   <si>
     <t>P@ssw0rd</t>
+  </si>
+  <si>
+    <t>Reports_Tab_URL</t>
   </si>
 </sst>
 </file>
@@ -617,7 +617,7 @@
   <dimension ref="A1:AMJ12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -654,7 +654,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -662,7 +662,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -675,7 +675,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -683,7 +683,7 @@
         <v>13</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -691,31 +691,31 @@
         <v>14</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>17</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/PartRiskTestData/TestEnv_Parameters.xlsx
+++ b/src/test/resources/PartRiskTestData/TestEnv_Parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IdeaProjects\Z2Data-Part-Risk-Production-Version\src\test\resources\PartRiskTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEC341A5-6694-4053-AC12-AD91A463DD97}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{186C8050-14BE-4ED9-9561-047F35E90075}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2790" yWindow="1170" windowWidth="15375" windowHeight="7875" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4230" yWindow="1155" windowWidth="15375" windowHeight="7875" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SimpleSearch" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Variable</t>
   </si>
@@ -104,6 +104,18 @@
   </si>
   <si>
     <t>Reports_Tab_URL</t>
+  </si>
+  <si>
+    <t>PCN_ID</t>
+  </si>
+  <si>
+    <t>MPN_ID</t>
+  </si>
+  <si>
+    <t>PD22748X</t>
+  </si>
+  <si>
+    <t>MBRB20100CTG</t>
   </si>
 </sst>
 </file>
@@ -217,10 +229,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -614,16 +626,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMJ12"/>
+  <dimension ref="A1:AMJ14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="58.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="62.5703125" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="1007" width="8.5703125" style="1" customWidth="1"/>
     <col min="1008" max="1024" width="9.140625" style="1" customWidth="1"/>
     <col min="1025" max="16384" width="9.140625" style="2"/>
@@ -638,8 +650,8 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -661,7 +673,7 @@
       <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>24</v>
       </c>
     </row>
@@ -716,6 +728,22 @@
       </c>
       <c r="B12" s="6" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
